--- a/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 16,72</t>
+          <t>8,31; 16,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 22,16</t>
+          <t>4,34; 21,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 15,32</t>
+          <t>7,74; 14,97</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,29</t>
+          <t>7,6; 12,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,02</t>
+          <t>2,05; 5,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 9,24</t>
+          <t>5,64; 9,08</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,06</t>
+          <t>5,27; 11,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 16,53</t>
+          <t>6,94; 15,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,21</t>
+          <t>6,87; 12,17</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 11,23</t>
+          <t>8,02; 11,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,3</t>
+          <t>4,0; 8,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 9,7</t>
+          <t>6,77; 9,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 16,24</t>
+          <t>8,14; 16,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 21,91</t>
+          <t>4,28; 22,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,74; 14,97</t>
+          <t>8,04; 15,32</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,11</t>
+          <t>7,52; 12,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,85</t>
+          <t>2,07; 6,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,08</t>
+          <t>5,76; 9,24</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 11,18</t>
+          <t>5,22; 11,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 15,83</t>
+          <t>7,31; 16,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 12,17</t>
+          <t>6,78; 12,21</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,02; 11,24</t>
+          <t>7,89; 11,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,31</t>
+          <t>4,19; 8,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 9,48</t>
+          <t>6,98; 9,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>11,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>10,47%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 16,72</t>
+          <t>7,94; 16,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 22,16</t>
+          <t>3,65; 15,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 15,32</t>
+          <t>7,61; 14,24</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,29</t>
+          <t>7,32; 11,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,02</t>
+          <t>1,26; 5,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 9,24</t>
+          <t>4,72; 8,52</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>8,76%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 11,06</t>
+          <t>4,89; 10,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 16,53</t>
+          <t>7,13; 16,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,21</t>
+          <t>6,44; 11,56</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 11,23</t>
+          <t>7,61; 10,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,3</t>
+          <t>2,76; 7,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 9,7</t>
+          <t>5,82; 8,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,94; 16,24</t>
+          <t>8,04; 15,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 15,18</t>
+          <t>3,3; 14,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,61; 14,24</t>
+          <t>7,5; 14,32</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 11,74</t>
+          <t>7,42; 11,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,25</t>
+          <t>1,22; 5,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,52</t>
+          <t>4,31; 8,49</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 10,58</t>
+          <t>4,8; 10,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 16,04</t>
+          <t>7,1; 15,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 11,56</t>
+          <t>6,54; 11,54</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 10,85</t>
+          <t>7,75; 11,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 7,53</t>
+          <t>2,54; 7,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 8,94</t>
+          <t>5,77; 9,01</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27089</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4976</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32065</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19320; 36434</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2180; 9607</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>22964; 43847</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>91591</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>22949</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>114540</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>72924; 114085</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8654; 35974</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>72893; 143673</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25269</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26154</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51423</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>16401; 35555</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17403; 37820</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>38389; 67752</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>143949</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>54079</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>198028</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>121201; 172826</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25872; 76327</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>149218; 232982</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>